--- a/package/data/people.xlsx
+++ b/package/data/people.xlsx
@@ -1,157 +1,179 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
-  <workbookPr/>
+<x:workbook xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <x:fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <x:workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\Flightassist\FlightAssistDirectorySample\package\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A23212A0-D021-4565-9B3F-3880D504CCEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
-  <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="25440" windowHeight="15270" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
-  </bookViews>
-  <sheets>
-    <sheet name="People" sheetId="1" r:id="rId1"/>
-  </sheets>
-  <calcPr calcId="0"/>
-</workbook>
+  <x:bookViews>
+    <x:workbookView xWindow="28680" yWindow="-120" windowWidth="25440" windowHeight="15270" firstSheet="0" activeTab="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </x:bookViews>
+  <x:sheets>
+    <x:sheet name="People" sheetId="1" r:id="rId1"/>
+  </x:sheets>
+  <x:definedNames/>
+  <x:calcPr calcId="0"/>
+</x:workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
-  <si>
-    <t>Id</t>
-  </si>
-  <si>
-    <t>FullName</t>
-  </si>
-  <si>
-    <t>Email</t>
-  </si>
-  <si>
-    <t>PhotoPath</t>
-  </si>
-  <si>
-    <t>Mohamed Imran</t>
-  </si>
-  <si>
-    <t>mohamed.imran@acmecorp.com</t>
-  </si>
-  <si>
-    <t>Sherine Salem</t>
-  </si>
-  <si>
-    <t>sherine.s@acmecorp.com</t>
-  </si>
-  <si>
-    <t>Mostafa Fathy</t>
-  </si>
-  <si>
-    <t>mostafa.f@acmecorp.com</t>
-  </si>
-  <si>
-    <t>Iman Mohamed</t>
-  </si>
-  <si>
-    <t>iman.m@acmecorp.com</t>
-  </si>
-  <si>
-    <t>Karim Nabil</t>
-  </si>
-  <si>
-    <t>karim.n@acmecorp.com</t>
-  </si>
-  <si>
-    <t>Nour Eldin</t>
-  </si>
-  <si>
-    <t>nour.e@acmecorp.com</t>
-  </si>
-  <si>
-    <t>data\images\AA1LaybT.jpg</t>
-  </si>
-  <si>
-    <t>data\images\R.jpg</t>
-  </si>
-  <si>
-    <t>data\images\woman.jpg</t>
-  </si>
-</sst>
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <x:si>
+    <x:t>Id</x:t>
+  </x:si>
+  <x:si>
+    <x:t>FullName</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Email</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PhotoPath</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mohamed Imran</x:t>
+  </x:si>
+  <x:si>
+    <x:t>mohamed.imran@acmecorp.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>photos\emp_6.jpg</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Sherine Salem</x:t>
+  </x:si>
+  <x:si>
+    <x:t>sherine.s@acmecorp.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>photos\emp_24.jpg</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mostafa Fathy</x:t>
+  </x:si>
+  <x:si>
+    <x:t>mostafa.f@acmecorp.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>photos\emp_31.jpg</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Iman Mohamed</x:t>
+  </x:si>
+  <x:si>
+    <x:t>iman.m@acmecorp.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>photos\emp_42.jpg</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Karim Nabil</x:t>
+  </x:si>
+  <x:si>
+    <x:t>karim.n@acmecorp.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>photos\emp_57.jpg</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Nour Eldin</x:t>
+  </x:si>
+  <x:si>
+    <x:t>nour.e@acmecorp.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>photos\emp_63.jpg</x:t>
+  </x:si>
+</x:sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-  </fonts>
-  <fills count="2">
-    <fill>
-      <patternFill patternType="none"/>
-    </fill>
-    <fill>
-      <patternFill patternType="gray125"/>
-    </fill>
-  </fills>
-  <borders count="2">
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-  </borders>
-  <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-  </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-  </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-  </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+<x:styleSheet xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x14ac x16r2 xr">
+  <x:numFmts count="1">
+    <x:numFmt numFmtId="0" formatCode=""/>
+  </x:numFmts>
+  <x:fonts count="3" x14ac:knownFonts="1">
+    <x:font>
+      <x:sz val="11"/>
+      <x:color theme="1"/>
+      <x:name val="Calibri"/>
+      <x:family val="2"/>
+      <x:scheme val="minor"/>
+    </x:font>
+    <x:font>
+      <x:b/>
+      <x:sz val="11"/>
+      <x:name val="Calibri"/>
+    </x:font>
+    <x:font>
+      <x:vertAlign val="baseline"/>
+      <x:sz val="11"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Calibri"/>
+      <x:family val="2"/>
+    </x:font>
+  </x:fonts>
+  <x:fills count="2">
+    <x:fill>
+      <x:patternFill patternType="none"/>
+    </x:fill>
+    <x:fill>
+      <x:patternFill patternType="gray125"/>
+    </x:fill>
+  </x:fills>
+  <x:borders count="2">
+    <x:border>
+      <x:left/>
+      <x:right/>
+      <x:top/>
+      <x:bottom/>
+      <x:diagonal/>
+    </x:border>
+    <x:border>
+      <x:left style="thin">
+        <x:color auto="1"/>
+      </x:left>
+      <x:right style="thin">
+        <x:color auto="1"/>
+      </x:right>
+      <x:top style="thin">
+        <x:color auto="1"/>
+      </x:top>
+      <x:bottom style="thin">
+        <x:color auto="1"/>
+      </x:bottom>
+      <x:diagonal/>
+    </x:border>
+  </x:borders>
+  <x:cellStyleXfs count="2">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+  </x:cellStyleXfs>
+  <x:cellXfs count="2">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <x:alignment horizontal="center" vertical="top"/>
+    </x:xf>
+  </x:cellXfs>
+  <x:cellStyles count="1">
+    <x:cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </x:cellStyles>
+  <x:tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <x:extLst>
+    <x:ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+    </x:ext>
+    <x:ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
       <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
-</styleSheet>
+    </x:ext>
+  </x:extLst>
+</x:styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -438,109 +460,126 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D7"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="3" max="3" width="37.6640625" customWidth="1"/>
-    <col min="4" max="4" width="55" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>6</v>
-      </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>24</v>
-      </c>
-      <c r="B3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>31</v>
-      </c>
-      <c r="B4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>42</v>
-      </c>
-      <c r="B5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>57</v>
-      </c>
-      <c r="B6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>63</v>
-      </c>
-      <c r="B7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xr:uid="{00000000-0001-0000-0000-000000000000}" mc:Ignorable="x14ac xr xr2 xr3">
+  <x:sheetPr>
+    <x:outlinePr summaryBelow="1" summaryRight="1"/>
+  </x:sheetPr>
+  <x:dimension ref="A1:D7"/>
+  <x:sheetViews>
+    <x:sheetView tabSelected="1" workbookViewId="0">
+      <x:selection activeCell="D5" sqref="D5"/>
+    </x:sheetView>
+  </x:sheetViews>
+  <x:sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <x:cols>
+    <x:col min="1" max="2" width="9.140625" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="37.664062" style="0" customWidth="1"/>
+    <x:col min="4" max="4" width="55" style="0" customWidth="1"/>
+  </x:cols>
+  <x:sheetData>
+    <x:row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <x:c r="A1" s="1" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B1" s="1" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C1" s="1" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="D1" s="1" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <x:c r="A2" s="0">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="B2" s="0" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="C2" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="D2" s="0" t="s">
+        <x:v>6</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <x:c r="A3" s="0">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="B3" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="C3" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="D3" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <x:c r="A4" s="0">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="B4" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="C4" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="D4" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <x:c r="A5" s="0">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="B5" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="C5" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="D5" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <x:c r="A6" s="0">
+        <x:v>57</x:v>
+      </x:c>
+      <x:c r="B6" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="C6" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="D6" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <x:c r="A7" s="0">
+        <x:v>63</x:v>
+      </x:c>
+      <x:c r="B7" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="C7" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="D7" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+    </x:row>
+  </x:sheetData>
+  <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
+  <x:pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
+  <x:headerFooter/>
+  <x:tableParts count="0"/>
+</x:worksheet>
 </file>